--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/67351593/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/67351593/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9979935884475708</v>
+        <v>0.997400164604187</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9950333833694458</v>
+        <v>0.9960772395133972</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9785218834877014</v>
+        <v>0.9829447865486145</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9982016086578369</v>
+        <v>0.9974687099456787</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9981889128684998</v>
+        <v>0.9974676370620728</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9982191920280457</v>
+        <v>0.997495174407959</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9981942772865295</v>
+        <v>0.9974810481071472</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9982191920280457</v>
+        <v>0.997495174407959</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9982514977455139</v>
+        <v>0.9975003600120544</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9982473850250244</v>
+        <v>0.9975128173828125</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9925718903541565</v>
+        <v>0.9925941824913025</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9982665181159973</v>
+        <v>0.997517466545105</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.968864917755127</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9982185959815979</v>
+        <v>0.9974800944328308</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9981672763824463</v>
+        <v>0.9974377155303955</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7931743264198303</v>
+        <v>0.9266644716262817</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9981673955917358</v>
+        <v>0.9974658489227295</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9982567429542542</v>
+        <v>0.9974983334541321</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9982219338417053</v>
+        <v>0.9974902868270874</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9982143640518188</v>
+        <v>0.997497022151947</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9982491731643677</v>
+        <v>0.9975011944770813</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.998257577419281</v>
+        <v>0.9975123405456543</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9782248735427856</v>
+        <v>0.9841670393943787</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6911104917526245</v>
+        <v>0.9077772498130798</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9981461763381958</v>
+        <v>0.9974457025527954</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9981776475906372</v>
+        <v>0.9974736571311951</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9981414079666138</v>
+        <v>0.9974468946456909</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9981235861778259</v>
+        <v>0.9974391460418701</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9981544613838196</v>
+        <v>0.9974095225334167</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9916431903839111</v>
+        <v>0.9868538379669189</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9922255277633667</v>
+        <v>0.9920094013214111</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9921825528144836</v>
+        <v>0.9927194118499756</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9982154369354248</v>
+        <v>0.9974803328514099</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9924417734146118</v>
+        <v>0.9927456974983215</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9982364177703857</v>
+        <v>0.9975053668022156</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6741150617599487</v>
+        <v>0.9120742082595825</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9914925694465637</v>
+        <v>0.9865452647209167</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9982056617736816</v>
+        <v>0.9974759221076965</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9619588255882263</v>
+        <v>0.9805009365081787</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9917224049568176</v>
+        <v>0.9866679906845093</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9925383925437927</v>
+        <v>0.992727518081665</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.991818904876709</v>
+        <v>0.9865348935127258</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.991139829158783</v>
+        <v>0.9859488010406494</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9406540393829346</v>
+        <v>0.8015318512916565</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9914022088050842</v>
+        <v>0.9865397810935974</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.99830162525177</v>
+        <v>0.9975302815437317</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9913976192474365</v>
+        <v>0.9864533543586731</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.990753173828125</v>
+        <v>0.9844517707824707</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9981284737586975</v>
+        <v>0.9974499344825745</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9913976192474365</v>
+        <v>0.9864533543586731</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9911099672317505</v>
+        <v>0.9864138960838318</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9982063770294189</v>
+        <v>0.9974831938743591</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.998222291469574</v>
+        <v>0.9974853992462158</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9982643723487854</v>
+        <v>0.9975041747093201</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9924795627593994</v>
+        <v>0.9926769733428955</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9982196688652039</v>
+        <v>0.9975121021270752</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9981189370155334</v>
+        <v>0.9974269270896912</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9981833100318909</v>
+        <v>0.9974818825721741</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9982089996337891</v>
+        <v>0.997502863407135</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9924618601799011</v>
+        <v>0.9927492141723633</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9399604201316833</v>
+        <v>0.9088120460510254</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.992525577545166</v>
+        <v>0.9927789568901062</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.992525577545166</v>
+        <v>0.9927789568901062</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9922846555709839</v>
+        <v>0.9926754832267761</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.992525577545166</v>
+        <v>0.9927789568901062</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9848804473876953</v>
+        <v>0.986369252204895</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.998237133026123</v>
+        <v>0.9974797368049622</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8698104023933411</v>
+        <v>0.9906625151634216</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9980541467666626</v>
+        <v>0.9974046349525452</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9926097989082336</v>
+        <v>0.9927652478218079</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9982225298881531</v>
+        <v>0.99750155210495</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9980887770652771</v>
+        <v>0.9974088072776794</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9926097989082336</v>
+        <v>0.9927652478218079</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9981160163879395</v>
+        <v>0.9974350333213806</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9926097989082336</v>
+        <v>0.9927652478218079</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9982224106788635</v>
+        <v>0.9974851608276367</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9923861026763916</v>
+        <v>0.9926713705062866</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9980917572975159</v>
+        <v>0.997427761554718</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9923861026763916</v>
+        <v>0.9926713705062866</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9980474710464478</v>
+        <v>0.9973880648612976</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9980474710464478</v>
+        <v>0.9973880648612976</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9982331991195679</v>
+        <v>0.9975069165229797</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9922890067100525</v>
+        <v>0.9926028847694397</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9982261061668396</v>
+        <v>0.9975038170814514</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9923151731491089</v>
+        <v>0.9925399422645569</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9981404542922974</v>
+        <v>0.9974441528320312</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.998264491558075</v>
+        <v>0.997505247592926</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9982568621635437</v>
+        <v>0.9975064396858215</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9982668161392212</v>
+        <v>0.9975040555000305</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9982523322105408</v>
+        <v>0.9974960684776306</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9982572197914124</v>
+        <v>0.9975009560585022</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9982636570930481</v>
+        <v>0.9975034594535828</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9983072280883789</v>
+        <v>0.997520387172699</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8573663830757141</v>
+        <v>0.9304918050765991</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9982441663742065</v>
+        <v>0.9974783062934875</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5317002534866333</v>
+        <v>0.9879986047744751</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9982469081878662</v>
+        <v>0.9974925518035889</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9982355833053589</v>
+        <v>0.9974997639656067</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.967972457408905</v>
+        <v>0.9777951240539551</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9831787347793579</v>
+        <v>0.9849488139152527</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9981626868247986</v>
+        <v>0.9974613189697266</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9858348965644836</v>
+        <v>0.9867540001869202</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9982268214225769</v>
+        <v>0.9974796175956726</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9913552403450012</v>
+        <v>0.986914336681366</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9786524772644043</v>
+        <v>0.9839345812797546</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9981592297554016</v>
+        <v>0.9974873065948486</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9915217161178589</v>
+        <v>0.9865541458129883</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9914436936378479</v>
+        <v>0.9863921403884888</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9923530220985413</v>
+        <v>0.9926010966300964</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9982473850250244</v>
+        <v>0.9975025057792664</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9918421506881714</v>
+        <v>0.9921707510948181</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9979944229125977</v>
+        <v>0.9743642807006836</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9981474876403809</v>
+        <v>0.9974607229232788</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9729887843132019</v>
+        <v>0.9779798984527588</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7193636298179626</v>
+        <v>0.5274714827537537</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.984660804271698</v>
+        <v>0.9866932034492493</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9982978701591492</v>
+        <v>0.9975282549858093</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.984660804271698</v>
+        <v>0.9866932034492493</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9982978701591492</v>
+        <v>0.9975282549858093</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.984660804271698</v>
+        <v>0.9866932034492493</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.998211145401001</v>
+        <v>0.9975122213363647</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9490578770637512</v>
+        <v>0.9779462814331055</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6980530619621277</v>
+        <v>0.9359233379364014</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9434152841567993</v>
+        <v>0.9810365438461304</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9981998205184937</v>
+        <v>0.9974613189697266</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8540964126586914</v>
+        <v>0.8038328886032104</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9982150793075562</v>
+        <v>0.997458279132843</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9980886578559875</v>
+        <v>0.9974011182785034</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9981995820999146</v>
+        <v>0.9974609613418579</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9975005984306335</v>
+        <v>0.9852150678634644</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.99820876121521</v>
+        <v>0.9974695444107056</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9981790781021118</v>
+        <v>0.9974402189254761</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9981564879417419</v>
+        <v>0.9974442720413208</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9981374740600586</v>
+        <v>0.9974250793457031</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9779523015022278</v>
+        <v>0.9857410192489624</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9924160242080688</v>
+        <v>0.9926506876945496</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9982500672340393</v>
+        <v>0.9975035786628723</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9924160242080688</v>
+        <v>0.9926506876945496</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9981497526168823</v>
+        <v>0.9974418878555298</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9848804473876953</v>
+        <v>0.986369252204895</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9982598423957825</v>
+        <v>0.9974913597106934</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9923269152641296</v>
+        <v>0.9926962852478027</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9628092050552368</v>
+        <v>0.9765378832817078</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8891732692718506</v>
+        <v>0.9808499217033386</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9983084201812744</v>
+        <v>0.9975035786628723</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.979079008102417</v>
+        <v>0.9843719601631165</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9982534050941467</v>
+        <v>0.9975035786628723</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9792726039886475</v>
+        <v>0.9843372702598572</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9982662796974182</v>
+        <v>0.9975079298019409</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9792910218238831</v>
+        <v>0.9843522906303406</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9982656836509705</v>
+        <v>0.9975093603134155</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9908533692359924</v>
+        <v>0.9875693917274475</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9981390237808228</v>
+        <v>0.9974523186683655</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9897798299789429</v>
+        <v>0.9971838593482971</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9981671571731567</v>
+        <v>0.997461199760437</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9921254515647888</v>
+        <v>0.9926723837852478</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9982572197914124</v>
+        <v>0.9975070357322693</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9819340109825134</v>
+        <v>0.9913865327835083</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9908003211021423</v>
+        <v>0.9863845705986023</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9919806718826294</v>
+        <v>0.9923228025436401</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9908003211021423</v>
+        <v>0.9863845705986023</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9916551113128662</v>
+        <v>0.992267906665802</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9974561333656311</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9981908202171326</v>
+        <v>0.9974673986434937</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9981837868690491</v>
+        <v>0.997455894947052</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9981908202171326</v>
+        <v>0.9974673986434937</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9981908202171326</v>
+        <v>0.9974673986434937</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9981837868690491</v>
+        <v>0.997455894947052</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9982080459594727</v>
+        <v>0.9974892139434814</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9980702996253967</v>
+        <v>0.997406542301178</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9981594681739807</v>
+        <v>0.9974373579025269</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9981480836868286</v>
+        <v>0.9974639415740967</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9981516003608704</v>
+        <v>0.99747234582901</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9843893647193909</v>
+        <v>0.9868246912956238</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9982621073722839</v>
+        <v>0.9975045323371887</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.99828040599823</v>
+        <v>0.9975106716156006</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.998291552066803</v>
+        <v>0.9975178241729736</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9982482194900513</v>
+        <v>0.9974851608276367</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9982099533081055</v>
+        <v>0.9974684715270996</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.998206615447998</v>
+        <v>0.9974783062934875</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9982068538665771</v>
+        <v>0.9974719882011414</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8189460039138794</v>
+        <v>0.9360888004302979</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9981940388679504</v>
+        <v>0.9974797368049622</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9981688261032104</v>
+        <v>0.9974660873413086</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9849322438240051</v>
+        <v>0.9866913557052612</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.991600513458252</v>
+        <v>0.9868549108505249</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9982447624206543</v>
+        <v>0.997503936290741</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9982471466064453</v>
+        <v>0.9975088834762573</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9982580542564392</v>
+        <v>0.9975082874298096</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9981879591941833</v>
+        <v>0.9974752068519592</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9115609526634216</v>
+        <v>0.9717607498168945</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.998229444026947</v>
+        <v>0.9974918365478516</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.998238205909729</v>
+        <v>0.9974817633628845</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9982061386108398</v>
+        <v>0.9974657297134399</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9912316203117371</v>
+        <v>0.986350953578949</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9982540011405945</v>
+        <v>0.9975159168243408</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9982045888900757</v>
+        <v>0.9974759221076965</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8480232954025269</v>
+        <v>0.9394322633743286</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.99802565574646</v>
+        <v>0.9974026083946228</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7922543287277222</v>
+        <v>0.928193986415863</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9981985688209534</v>
+        <v>0.9974772334098816</v>
       </c>
     </row>
   </sheetData>
